--- a/backend-logic/data/data.xlsx
+++ b/backend-logic/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohammed\PlanMyMorocco\backend-logic\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206C1AE4-D667-4509-ACE1-8688BED356EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4603193-9316-4319-A289-F6A3998C1869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{0677A140-6DE2-4459-A79C-7541D9377EF4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0677A140-6DE2-4459-A79C-7541D9377EF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Cities" sheetId="3" r:id="rId1"/>
@@ -728,12 +728,6 @@
     <t>Economic capital, home to the Hassan II Mosque.</t>
   </si>
   <si>
-    <t>C:\Users\mohammed\Downloads\marrakech.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\mohammed\Downloads\casablanca.jpeg</t>
-  </si>
-  <si>
     <t>city</t>
   </si>
   <si>
@@ -768,13 +762,19 @@
   </si>
   <si>
     <t>type</t>
+  </si>
+  <si>
+    <t>https://cdn.getyourguide.com/image/format=auto,fit=crop,gravity=auto,quality=60,width=285,height=160/tour_img/6399ecae5f096.jpeg</t>
+  </si>
+  <si>
+    <t>https://images.contentstack.io/v3/assets/blt06f605a34f1194ff/blt8c7da5f579a86057/6792a968bf5204e2067d25c6/iStock-1440978662-HEADERDESKTOP.jpg?format=webp&amp;auto=avif&amp;quality=60&amp;crop=16%3A9&amp;width=1440</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -930,6 +930,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -1255,7 +1263,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1298,8 +1306,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1316,8 +1325,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1351,6 +1363,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1754,8 +1767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B9F089-44B0-4FA7-B475-D715D38C768F}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1783,22 +1796,26 @@
       <c r="B2" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C2" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>196</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>199</v>
+      <c r="C3" s="8" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{D264A9A8-8304-4F81-B0E9-13EB1AF7282C}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{E0AF5BD3-5A4B-444E-A01D-F64B02AF7A81}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1807,7 +1824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C8F7B30-2B03-486E-9450-ACBE25E4E508}">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1831,40 +1848,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>192</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2286,7 +2303,7 @@
         <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D16" t="s">
         <v>87</v>
@@ -2315,7 +2332,7 @@
         <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D17" t="s">
         <v>86</v>
@@ -2345,7 +2362,7 @@
         <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F18" t="s">
         <v>92</v>
@@ -2372,7 +2389,7 @@
         <v>104</v>
       </c>
       <c r="C19" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D19" t="s">
         <v>113</v>
@@ -2402,7 +2419,7 @@
         <v>105</v>
       </c>
       <c r="C20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D20" t="s">
         <v>120</v>
@@ -2432,7 +2449,7 @@
         <v>106</v>
       </c>
       <c r="C21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D21" t="s">
         <v>123</v>
@@ -2461,7 +2478,7 @@
         <v>107</v>
       </c>
       <c r="C22" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D22" t="s">
         <v>126</v>
@@ -2490,7 +2507,7 @@
         <v>108</v>
       </c>
       <c r="C23" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D23" t="s">
         <v>123</v>
